--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129043.195714799</v>
+        <v>2126499.386207715</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="F2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>232.2791855053266</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>259.6326967715748</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13.57713641697907</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.34724819842792</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>2.875679294072452</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>60.96760033386538</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
-        <v>219.4450108596164</v>
-      </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>12.37574161813332</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.8563301598667</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>53.36410705248011</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>93.52680643158889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824948</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425464997</v>
+        <v>65.76608425465079</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>192.9703887840817</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>197.8244010340013</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1218,7 +1218,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.8686312908564</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614501</v>
+        <v>92.83909691614512</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059663465</v>
+        <v>20.24979976115259</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>20.53952247906244</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.6247095320094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760447</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.24347904696231</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892451</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,19 +3241,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890341</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358688</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>94.80184639741307</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427764</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044908</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4337,43 +4337,43 @@
         <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006024</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388465</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388465</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>801.3675279810718</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>626.9144986999448</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>477.9800890386936</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>318.7426340332381</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>172.208076060123</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>34.81138960919026</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4407,52 +4407,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212814</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810718</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>801.3675279810718</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>801.3675279810718</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>801.3675279810718</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4489,49 +4489,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287943</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551006</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375332</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1051.950793446355</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1051.950793446355</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>785.5731368791774</v>
+        <v>657.6925225705468</v>
       </c>
       <c r="V4" t="n">
-        <v>785.5731368791774</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="W4" t="n">
-        <v>519.1954803119994</v>
+        <v>403.0080343646599</v>
       </c>
       <c r="X4" t="n">
-        <v>519.1954803119994</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>298.4029011684693</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
+        <v>307.3840804899463</v>
+      </c>
+      <c r="F5" t="n">
         <v>300.4385797407429</v>
       </c>
-      <c r="F5" t="n">
-        <v>34.06092317356495</v>
-      </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4568,19 +4568,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4659,7 +4659,7 @@
         <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>904.2569522304912</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1024.018887103589</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1024.018887103589</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1024.018887103589</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="V6" t="n">
-        <v>788.8667788718465</v>
+        <v>474.2580350095591</v>
       </c>
       <c r="W6" t="n">
-        <v>534.6294221436449</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X6" t="n">
-        <v>534.6294221436449</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.1168882493048</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>75.00024883696909</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4726,10 +4726,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V7" t="n">
-        <v>960.383998357955</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="W7" t="n">
-        <v>694.006341790777</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="X7" t="n">
-        <v>466.0167908927597</v>
+        <v>445.9094673928349</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.0167908927597</v>
+        <v>225.1168882493048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.269430205405</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="C8" t="n">
-        <v>880.306913264993</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0412146582424</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2529620599982</v>
+        <v>540.2933661004025</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107948</v>
+        <v>533.3478653511991</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467184</v>
+        <v>187.3702251467158</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607448</v>
+        <v>442.1757437607395</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904597</v>
+        <v>795.1862829045886</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995233</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209592</v>
+        <v>1655.591685209576</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940605</v>
+        <v>2053.905718940586</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550209</v>
+        <v>2359.356530550186</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661176</v>
+        <v>2540.564622661151</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342796</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342796</v>
+        <v>2435.830015762122</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342796</v>
+        <v>2227.077931858395</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.643175712411</v>
+        <v>2227.077931858395</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.643175712411</v>
+        <v>2227.077931858395</v>
       </c>
       <c r="W8" t="n">
-        <v>2012.874520442296</v>
+        <v>1874.309276588281</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.408762181216</v>
+        <v>1674.486649281209</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.269430205405</v>
+        <v>1284.347317305397</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010909</v>
+        <v>929.5097208010636</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199639</v>
+        <v>755.0566915199366</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587127</v>
+        <v>606.1222818586854</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532572</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801422</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763303</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446668</v>
+        <v>71.6655983999388</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637195</v>
+        <v>113.4887579637179</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148196</v>
+        <v>559.906338957269</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996617</v>
+        <v>854.442322390749</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.891505973964</v>
+        <v>1217.508790865049</v>
       </c>
       <c r="N9" t="n">
-        <v>1681.975908446535</v>
+        <v>1851.248074049884</v>
       </c>
       <c r="O9" t="n">
-        <v>2013.862718433925</v>
+        <v>2183.134884037272</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888893</v>
+        <v>2430.170242466895</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442639</v>
+        <v>2545.387641020639</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342796</v>
+        <v>2560.562760342769</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251712</v>
+        <v>2424.826280251684</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768536</v>
+        <v>2230.816477685333</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175159</v>
+        <v>2002.726321751563</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519847</v>
+        <v>1767.57421351982</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791646</v>
+        <v>1513.336856791618</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586113</v>
+        <v>1305.485356586086</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821159</v>
+        <v>1097.725057821132</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.067118627402</v>
+        <v>367.0373856326727</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994951</v>
+        <v>198.1012027047657</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871594</v>
+        <v>198.1012027047657</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047663</v>
+        <v>198.1012027047657</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685592</v>
+        <v>51.21125520685538</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380206</v>
+        <v>76.63468308380084</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676579</v>
+        <v>248.2500215676556</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368938</v>
+        <v>523.38500433689</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990406</v>
+        <v>823.8653899904007</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101616</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931095</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1533.156055412614</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477367</v>
+        <v>1336.515802634448</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477367</v>
+        <v>1113.534501108853</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477367</v>
+        <v>1092.78750870576</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.08465727148</v>
+        <v>838.1030204998731</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.66748723452</v>
+        <v>548.6858504629124</v>
       </c>
       <c r="X10" t="n">
-        <v>863.6779363365024</v>
+        <v>548.6858504629124</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.067118627402</v>
+        <v>548.6858504629124</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2389.141387573228</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2389.141387573228</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596169</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138446</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,46 +6938,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580259</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400671</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121602</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121602</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713837</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703069</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7637,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446522</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>162.4747015415541</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>5.262887399594376</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.629595708444</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538058</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>161.7749020458</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.31458639917216</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532677</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.131767663159373</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.2652634529499</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685079</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.44497470121476</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.158440889167</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194625</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>860825.3980246397</v>
+        <v>860825.3980246396</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837084.3681224533</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224533</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752545</v>
@@ -26344,16 +26344,16 @@
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580822</v>
+        <v>390680.0076580755</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606902</v>
+        <v>507909.2320606966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101846</v>
+        <v>95270.23779101677</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954683</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555015</v>
+        <v>139261.6527555034</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26436,7 +26436,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26448,16 +26448,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678118</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678118</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567921</v>
+        <v>92902.86757567868</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-398213.1666187164</v>
+        <v>-398213.1666187168</v>
       </c>
       <c r="C6" t="n">
-        <v>281874.8139724766</v>
+        <v>281874.8139724768</v>
       </c>
       <c r="D6" t="n">
-        <v>-27589.24483765749</v>
+        <v>-27589.24483765228</v>
       </c>
       <c r="E6" t="n">
-        <v>-34407.56539612412</v>
+        <v>-34442.30332156604</v>
       </c>
       <c r="F6" t="n">
-        <v>473501.6666645661</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="G6" t="n">
-        <v>473501.6666645656</v>
+        <v>473466.9287391299</v>
       </c>
       <c r="H6" t="n">
-        <v>473501.6666645663</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="I6" t="n">
-        <v>473501.6666645661</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="J6" t="n">
-        <v>404502.512245452</v>
+        <v>404467.7743200163</v>
       </c>
       <c r="K6" t="n">
-        <v>473501.6666645662</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="L6" t="n">
-        <v>378231.4288735476</v>
+        <v>378196.6909481136</v>
       </c>
       <c r="M6" t="n">
-        <v>340783.6909690981</v>
+        <v>340748.9530436606</v>
       </c>
       <c r="N6" t="n">
-        <v>473501.6666645659</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="O6" t="n">
-        <v>473501.6666645661</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="P6" t="n">
-        <v>473501.6666645662</v>
+        <v>473466.9287391303</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627854</v>
+        <v>933.7024595627801</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085699</v>
+        <v>640.1406900856923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933072</v>
+        <v>319.6474457933018</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788883</v>
+        <v>434.2730407788937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841929</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139494</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841929</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139494</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841929</v>
+        <v>376.4268100841862</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139494</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403834</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11956169856012</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>85.90218385423069</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.3354475788764</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>201.8434849495213</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>225.2910301688121</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2380307610665</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,7 +27673,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>267.950986551452</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>134.7741937940654</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.838653001052876</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.05694097045114</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>158.6108368922391</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>58.07497790560396</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.9066996444677</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.776449164544516</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164517537</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430993</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640951</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>265.687667291242</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.95994382008541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,13 +30223,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885567</v>
+        <v>3.753577726885545</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546682</v>
+        <v>38.4413278954666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972541</v>
+        <v>318.5802175972523</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763203</v>
+        <v>477.4691627763175</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354946</v>
+        <v>592.3427171354912</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359958</v>
+        <v>659.0954050359919</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525095</v>
+        <v>669.7602577525056</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230791</v>
+        <v>632.4356192307874</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983035</v>
+        <v>539.7691690983004</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.344166754214</v>
+        <v>405.3441667542117</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864757</v>
+        <v>235.7856768864743</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140494</v>
+        <v>85.53465245140444</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944158</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508453</v>
+        <v>0.3002862181508436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436935</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035145</v>
+        <v>19.39634732035134</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026289</v>
+        <v>69.14683309026249</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079431</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502177</v>
+        <v>324.3030514502158</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571292</v>
+        <v>436.0654741571267</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461718</v>
+        <v>508.867840461715</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152228</v>
+        <v>522.3360580152198</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519096</v>
+        <v>477.8354464519069</v>
       </c>
       <c r="P9" t="n">
-        <v>383.50507249476</v>
+        <v>383.5050724947578</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463708</v>
+        <v>256.3629847463694</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204792</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366409</v>
+        <v>37.30405581366388</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133958</v>
+        <v>8.095024154133911</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752564</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840008</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415893</v>
+        <v>50.63422518415864</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772524</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749013</v>
+        <v>250.3240987490116</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023132</v>
+        <v>263.9316641023117</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462357</v>
+        <v>257.6559590462342</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046261</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708736</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939806</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307435</v>
+        <v>75.70643221307391</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658785</v>
+        <v>29.34274778658768</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794277</v>
+        <v>7.194100917942729</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650358</v>
+        <v>0.09183958618650305</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572284</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966403</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>192.2171678043495</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>123.5028874333353</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705679</v>
+        <v>137.534313070566</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313397</v>
+        <v>257.379311731337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655073</v>
+        <v>356.5763021655039</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087231</v>
+        <v>428.7491718087192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559185</v>
+        <v>440.3471941559147</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091042</v>
+        <v>402.3374078091007</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430339</v>
+        <v>308.5361733430308</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797645</v>
+        <v>183.0384768797622</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234355</v>
+        <v>20.20013907234221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127636</v>
+        <v>62.90656844127528</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758587</v>
+        <v>450.9268494884354</v>
       </c>
       <c r="L9" t="n">
-        <v>640.140690085699</v>
+        <v>297.5110943772526</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396997</v>
+        <v>366.7338065396967</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318895</v>
+        <v>640.1406900856923</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074652</v>
+        <v>335.2392020074624</v>
       </c>
       <c r="P9" t="n">
-        <v>411.3055671262297</v>
+        <v>249.5306650804275</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603493</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783608</v>
+        <v>15.3284033556867</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873347</v>
+        <v>25.68023017873278</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513695</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093292</v>
+        <v>277.9141240093277</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641538</v>
+        <v>303.5155410641523</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254643</v>
+        <v>301.7881314254628</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186658</v>
+        <v>262.5721089186644</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357671</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228621</v>
+        <v>54.82702814228541</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
